--- a/dataSheet.xlsx
+++ b/dataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\CSCI2270\Final-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9161CE91-D494-4340-94E3-F0E12CA9F957}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C6A124-30F1-4D11-8366-2F38E2994F0C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{19581719-7D2D-4984-BF7A-8F009852C12B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>ISBN</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>Chris Traeger</t>
+  </si>
+  <si>
+    <t>Meriah</t>
   </si>
 </sst>
 </file>
@@ -485,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4456492-D383-4768-88B7-A90B909E1908}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -731,6 +734,20 @@
         <v>43769</v>
       </c>
     </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>123</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
